--- a/spliced/struggle/2023-04-11_10-08-57/data_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-08-57/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.08938375115394598</v>
+        <v>0.001320064067840854</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1692165168933569</v>
+        <v>0.1883212360553446</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5018252262379972</v>
+        <v>-0.001869207888376141</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9384417533874512</v>
+        <v>0.5199990272521973</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.677116870880127</v>
+        <v>-4.081954479217529</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5099197626113892</v>
+        <v>1.088714599609375</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1929084062576291</v>
+        <v>-0.1889566183090211</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4109948240220542</v>
+        <v>0.01437168661504978</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.720066420733919</v>
+        <v>0.113000919460319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.034972034394741</v>
+        <v>0.446847915649414</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6041457056999207</v>
+        <v>-3.855323314666748</v>
       </c>
       <c r="H3" t="n">
-        <v>1.204626321792602</v>
+        <v>1.094059705734253</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.000434547662735</v>
+        <v>-0.08938375115394598</v>
       </c>
       <c r="D4" t="n">
-        <v>2.042165352962912</v>
+        <v>-0.1692165168933569</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.599539369344711</v>
+        <v>0.5018252262379972</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0742201283574104</v>
+        <v>-0.9384417533874512</v>
       </c>
       <c r="G4" t="n">
-        <v>3.885408401489258</v>
+        <v>-2.677116870880127</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9509644508361816</v>
+        <v>0.5099197626113892</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.09021557867526875</v>
+        <v>-0.1929084062576291</v>
       </c>
       <c r="D5" t="n">
-        <v>1.365645807236434</v>
+        <v>-0.4109948240220542</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.053896635770798</v>
+        <v>-4.720066420733919</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2799290120601654</v>
+        <v>0.034972034394741</v>
       </c>
       <c r="G5" t="n">
-        <v>5.545434474945068</v>
+        <v>-0.6041457056999207</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.251815557479858</v>
+        <v>1.204626321792602</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5174209550023052</v>
+        <v>2.000434547662735</v>
       </c>
       <c r="D6" t="n">
-        <v>1.105433903634548</v>
+        <v>2.042165352962912</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9973694682121375</v>
+        <v>-6.599539369344711</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.960266590118408</v>
+        <v>-0.0742201283574104</v>
       </c>
       <c r="G6" t="n">
-        <v>3.989102840423584</v>
+        <v>3.885408401489258</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.11391282081604</v>
+        <v>-0.9509644508361816</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.629707574844347</v>
+        <v>-0.09021557867526875</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8005782067775653</v>
+        <v>1.365645807236434</v>
       </c>
       <c r="E7" t="n">
-        <v>2.141507089138026</v>
+        <v>-6.053896635770798</v>
       </c>
       <c r="F7" t="n">
-        <v>1.471879839897156</v>
+        <v>-0.2799290120601654</v>
       </c>
       <c r="G7" t="n">
-        <v>3.605174064636231</v>
+        <v>5.545434474945068</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6311765313148499</v>
+        <v>-1.251815557479858</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-7.056866303086275</v>
+        <v>0.5174209550023052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3514397386461448</v>
+        <v>1.105433903634548</v>
       </c>
       <c r="E8" t="n">
-        <v>2.944397807121277</v>
+        <v>-0.9973694682121375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3701843321323395</v>
+        <v>-1.960266590118408</v>
       </c>
       <c r="G8" t="n">
-        <v>2.142762660980225</v>
+        <v>3.989102840423584</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7980954647064209</v>
+        <v>-1.11391282081604</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-9.603626579046249</v>
+        <v>-2.629707574844347</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5813145525753456</v>
+        <v>-0.8005782067775653</v>
       </c>
       <c r="E9" t="n">
-        <v>3.010353595018387</v>
+        <v>2.141507089138026</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1598939746618271</v>
+        <v>1.471879839897156</v>
       </c>
       <c r="G9" t="n">
-        <v>1.625817894935608</v>
+        <v>3.605174064636231</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7165449261665344</v>
+        <v>0.6311765313148499</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.548536062240635</v>
+        <v>-7.056866303086275</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.370640006847683</v>
+        <v>0.3514397386461448</v>
       </c>
       <c r="E10" t="n">
-        <v>1.629433391615754</v>
+        <v>2.944397807121277</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1820378452539444</v>
+        <v>0.3701843321323395</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.18492591381073</v>
+        <v>2.142762660980225</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6307183504104614</v>
+        <v>0.7980954647064209</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.60937356948853</v>
+        <v>-9.603626579046249</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.991274744272228</v>
+        <v>-0.5813145525753456</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.746213614940636</v>
+        <v>3.010353595018387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4576907753944397</v>
+        <v>-0.1598939746618271</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.009732961654663</v>
+        <v>1.625817894935608</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6159048676490784</v>
+        <v>0.7165449261665344</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6547532081603959</v>
+        <v>-2.548536062240635</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.344839558005337</v>
+        <v>-1.370640006847683</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.395508795976642</v>
+        <v>1.629433391615754</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5346598029136658</v>
+        <v>-0.1820378452539444</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.662568092346191</v>
+        <v>-1.18492591381073</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0311541277915239</v>
+        <v>-0.6307183504104614</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.140061497688298</v>
+        <v>2.60937356948853</v>
       </c>
       <c r="D13" t="n">
-        <v>1.616844072937961</v>
+        <v>-1.991274744272228</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.33512344956397</v>
+        <v>-1.746213614940636</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.93095862865448</v>
+        <v>0.4576907753944397</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.851797103881836</v>
+        <v>-3.009732961654663</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2988658249378204</v>
+        <v>-0.6159048676490784</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.699982233345492</v>
+        <v>-0.6547532081603959</v>
       </c>
       <c r="D14" t="n">
-        <v>1.653415338136266</v>
+        <v>-1.344839558005337</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.297598630189903</v>
+        <v>-2.395508795976642</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.302822828292847</v>
+        <v>-0.5346598029136658</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.308126926422119</v>
+        <v>-5.662568092346191</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2461786866188049</v>
+        <v>0.0311541277915239</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.490441828966164</v>
+        <v>-2.140061497688298</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.07099017873406821</v>
+        <v>1.616844072937961</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.911463320255252</v>
+        <v>-2.33512344956397</v>
       </c>
       <c r="F15" t="n">
-        <v>1.484097123146057</v>
+        <v>-0.93095862865448</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.448626041412354</v>
+        <v>-4.851797103881836</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5797111392021179</v>
+        <v>0.2988658249378204</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.688229024410236</v>
+        <v>-2.699982233345492</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4744371799752133</v>
+        <v>1.653415338136266</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.912044033408196</v>
+        <v>-4.297598630189903</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.243263483047485</v>
+        <v>-1.302822828292847</v>
       </c>
       <c r="G16" t="n">
-        <v>4.786739826202393</v>
+        <v>-4.308126926422119</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0372627787292003</v>
+        <v>0.2461786866188049</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3.18423932045698</v>
+        <v>-4.490441828966164</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4117047395557177</v>
+        <v>-0.07099017873406821</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.166765406727792</v>
+        <v>-4.911463320255252</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.078774452209473</v>
+        <v>1.484097123146057</v>
       </c>
       <c r="G17" t="n">
-        <v>6.594595909118652</v>
+        <v>-4.448626041412354</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5763513445854187</v>
+        <v>-0.5797111392021179</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.577035415917628</v>
+        <v>-1.688229024410236</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.492048852145675</v>
+        <v>0.4744371799752133</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.207581005990504</v>
+        <v>-6.912044033408196</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0809396430850029</v>
+        <v>-1.243263483047485</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65755558013916</v>
+        <v>4.786739826202393</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.151620149612427</v>
+        <v>-0.0372627787292003</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-10.87109673023223</v>
+        <v>-3.18423932045698</v>
       </c>
       <c r="D19" t="n">
-        <v>1.911675244569787</v>
+        <v>-0.4117047395557177</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.179039120674157</v>
+        <v>-1.166765406727792</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0555887371301651</v>
+        <v>-2.078774452209473</v>
       </c>
       <c r="G19" t="n">
-        <v>4.281401634216309</v>
+        <v>6.594595909118652</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0158824957907199</v>
+        <v>-0.5763513445854187</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-13.28029692173006</v>
+        <v>-1.577035415917628</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.184043031185867</v>
+        <v>-1.492048852145675</v>
       </c>
       <c r="E20" t="n">
-        <v>7.776417866349263</v>
+        <v>-4.207581005990504</v>
       </c>
       <c r="F20" t="n">
-        <v>1.174388408660889</v>
+        <v>-0.0809396430850029</v>
       </c>
       <c r="G20" t="n">
-        <v>2.766455888748169</v>
+        <v>3.65755558013916</v>
       </c>
       <c r="H20" t="n">
-        <v>1.382998943328857</v>
+        <v>-2.151620149612427</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-10.87109673023223</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.911675244569787</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-3.179039120674157</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0555887371301651</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.281401634216309</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.0158824957907199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.28029692173006</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.184043031185867</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.776417866349263</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.174388408660889</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.766455888748169</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.382998943328857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>-7.754817754030277</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>-1.696428641676895</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E23" t="n">
         <v>-6.568115353584284</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F23" t="n">
         <v>0.1893682330846786</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G23" t="n">
         <v>-0.1372919678688049</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>0.0531452745199203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4.677844420075353</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.651133604347696</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-7.842656075954431</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.7247915863990784</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2.964529037475586</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.036930084228516</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.627654522657398</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-2.928949266672134</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.230176210403448</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.9755517840385436</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3.013092756271362</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1954768747091293</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.852406792342663</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3913787733763447</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2968738228082666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0148134818300604</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-4.330729007720947</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6641632318496704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.301035702228551</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.64691380783915</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-6.109266191720954</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2535090744495392</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4.50192403793335</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8677340745925903</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.465943455696097</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-2.991184197366218</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.608212560415278</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0308486949652433</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-3.680310487747192</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.009607553482056</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.307898223400096</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.068972408771528</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.7334359884262174</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.2924517393112182</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6568328738212585</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.4216497242450714</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.702915767207749</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.5735956337302961</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.9715757742524092</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.683863639831543</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.383111000061035</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.505782842636108</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.414293382316824</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2869436666369428</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.1008520126342796</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6068946123123169</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.862334728240967</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4990769028663635</v>
       </c>
     </row>
   </sheetData>
